--- a/학습자료/단답형/영어_단어_Day10.xlsx
+++ b/학습자료/단답형/영어_단어_Day10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>구분2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -489,11 +484,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,11 +509,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -549,11 +534,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -579,11 +559,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -609,11 +584,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -639,11 +609,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -669,11 +634,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -699,11 +659,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -729,11 +684,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -759,11 +709,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -789,11 +734,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -819,11 +759,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -849,11 +784,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -879,11 +809,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -909,11 +834,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -939,11 +859,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -969,11 +884,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -999,11 +909,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1029,11 +934,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1059,11 +959,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1089,11 +984,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1119,11 +1009,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1149,11 +1034,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1179,11 +1059,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1209,11 +1084,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1239,11 +1109,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1269,11 +1134,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1299,11 +1159,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1329,11 +1184,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1359,11 +1209,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1389,11 +1234,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1419,11 +1259,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1449,11 +1284,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1479,11 +1309,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1509,11 +1334,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1539,11 +1359,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1569,11 +1384,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1599,11 +1409,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1629,11 +1434,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1659,11 +1459,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1689,11 +1484,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1719,11 +1509,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1749,11 +1534,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1779,11 +1559,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1809,11 +1584,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1839,11 +1609,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1869,11 +1634,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1899,11 +1659,6 @@
           <t>관용어</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Day10_관용어</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1929,11 +1684,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1959,11 +1709,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1989,11 +1734,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2019,11 +1759,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2049,11 +1784,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2079,11 +1809,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2109,11 +1834,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2139,11 +1859,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2169,11 +1884,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2199,11 +1909,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2229,11 +1934,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2259,11 +1959,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2289,11 +1984,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2319,11 +2009,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2349,11 +2034,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2379,11 +2059,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2409,11 +2084,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2439,11 +2109,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2469,11 +2134,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2499,11 +2159,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2529,11 +2184,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2559,11 +2209,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2589,11 +2234,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2619,11 +2259,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2649,11 +2284,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2679,11 +2309,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2709,11 +2334,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2739,11 +2359,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2769,11 +2384,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2799,11 +2409,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2829,11 +2434,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2859,11 +2459,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2889,11 +2484,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2919,11 +2509,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2949,11 +2534,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2979,11 +2559,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3009,11 +2584,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3039,11 +2609,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3069,11 +2634,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3099,11 +2659,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3129,11 +2684,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3159,11 +2709,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3189,11 +2734,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3219,11 +2759,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3249,11 +2784,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3279,11 +2809,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3309,11 +2834,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3339,11 +2859,6 @@
           <t>유의어</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3367,11 +2882,6 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>유의어</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Day10_유의어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day10.xlsx
+++ b/학습자료/단답형/영어_단어_Day10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day10.xlsx
+++ b/학습자료/단답형/영어_단어_Day10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,893 +446,893 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a (soft) snap</t>
+          <t>a big deal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>쉬운 일</t>
+          <t>크거나 중요한 일(사람)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a backseat driver</t>
+          <t>a bigmouth</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>쓸데없이 간섭하는 사람</t>
+          <t>입이 가벼운 사람 / 수다스러운 사람</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>사람</t>
         </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a baker'(long) dozen</t>
+          <t>memorialize</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13(개)</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a bear market</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>하락세</t>
+          <t>실망시키다</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a big bug[shot; name; noise]</t>
+          <t>a far cry from</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>대단한 인물</t>
+          <t>~와는 완전히 다른</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a bigwig</t>
+          <t>a bull market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>대단한 인물</t>
+          <t>상승세</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a big deal</t>
+          <t>a feather in one's cap</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>크거나 중요한 일(사람)</t>
+          <t>자랑거리</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a big fish in a little pond</t>
+          <t>a baker'(long) dozen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우물 안 개구리</t>
+          <t>13(개)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a big hand</t>
+          <t>a bolt from[out of] the blue [sky]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>힘찬 박수, 뜨거운 박수</t>
+          <t>예기치 못한 일</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a big fish</t>
+          <t>a long shot</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대단한 인물</t>
+          <t>가능성 없는 일 / 어려운 일</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a bigmouth</t>
+          <t>a cash cow</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>입이 가벼운 사람, 수다스러운 사람</t>
+          <t>이익을 불러오는 사업</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a blind date</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>소개팅, 서로 모르는 남녀의 데이트</t>
+          <t>독창적인</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a bolt from[out of] the blue [sky]</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>예기치 못한 일</t>
+          <t>체계적인 / 조직적인</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a bone of contention</t>
+          <t>censor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>분쟁의 원인</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dragon's teeth</t>
+          <t>a man of his word</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>분쟁의 원인</t>
+          <t>자기 말을 지키는 사람</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a bull market</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>상승세</t>
+          <t>독창적인</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a cash cow</t>
+          <t>lossen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이익을 불러오는 사업</t>
+          <t>완화하다 / 완화되다</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a chicken</t>
+          <t>let up</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>겁쟁이</t>
+          <t>완화하다 / 완화되다</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a chip off the old block</t>
+          <t>felicitate</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(부모와 아주 닮은) 판박이</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a close call</t>
+          <t>a knockout</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>위험한 순간</t>
+          <t>굉장히 매력적인 사람</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a cold fish</t>
+          <t>planned</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>냉혈한, 냉정한 인간</t>
+          <t>체계적인 / 조직적인</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a copycat</t>
+          <t>a bone of contention</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>모방하는 인간</t>
+          <t>분쟁의 원인</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a couch potato</t>
+          <t>a double take</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
+          <t>예상치 못한 상황에 대한 늦은 반응</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a dark horse</t>
+          <t>a dead[good / real] bargin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>유력한 경쟁 상대 (다크호스)</t>
+          <t>헐값에 산 물건</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a dead[good, real] bargin</t>
+          <t>dragon's teeth</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>헐값에 산 물건</t>
+          <t>분쟁의 원인</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a dog in the manger</t>
+          <t>a man of the world</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>심술 맞은 사람</t>
+          <t>세상 물정에 밝은 사람</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>사람</t>
         </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a double take</t>
+          <t>exhume</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>예상치 못한 상황에 대한 늦은 반응</t>
+          <t>발굴하다</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a drop in the bucket</t>
+          <t>ease off</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>새 발의 피</t>
+          <t>완화하다 / 완화되다</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a drop in the ocean</t>
+          <t>inventive</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>새 발의 피</t>
+          <t>독창적인</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>the tip of the iceberg</t>
+          <t>disinter</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>새 발의 피</t>
+          <t>발굴하다</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a fair-weather friend[fan]</t>
+          <t>innovative</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
+          <t>독창적인</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>a far cry from</t>
+          <t>efface</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~와는 완전히 다른</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>a fat cat</t>
+          <t>discourage</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>큰 금액의 정치 후원을 하는 사람, 부자</t>
+          <t>실망시키다</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>a feather in one's cap</t>
+          <t>a long day</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>자랑거리</t>
+          <t>고단한 날</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>a glass ceiling</t>
+          <t>a Jack of all trades</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>유리천장(승진하기 힘든 구조)</t>
+          <t>다재다능한 인물 / 팔방미인</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1348,216 +1348,216 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a heart of gold</t>
+          <t>a drop in the bucket</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>고운 마음씨</t>
+          <t>새 발의 피</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a house-warming party</t>
+          <t>disclose</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>집들이</t>
+          <t>폭로하다</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a Jack of all trades</t>
+          <t>let on</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>다재다능한 인물, 팔방미인</t>
+          <t>폭로하다</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>a knockout</t>
+          <t>ingenious</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>굉장히 매력적인 사람</t>
+          <t>독창적인</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>a last resort</t>
+          <t>a (soft) snap</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>최후의 수단</t>
+          <t>쉬운 일</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>a lemon</t>
+          <t>a copycat</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>품질이 좋지 않은 물건</t>
+          <t>모방하는 인간</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>a long day</t>
+          <t>unbury</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>고단한 날</t>
+          <t>발굴하다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>a long shot</t>
+          <t>methodical</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>가능성 없는 일, 어려운 일</t>
+          <t>체계적인 / 조직적인</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1573,72 +1573,72 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
           <t>사람</t>
         </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>a man of his word</t>
+          <t>a dog in the manger</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>자기 말을 지키는 사람</t>
+          <t>심술 맞은 사람</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
           <t>사람</t>
         </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>a man of the world</t>
+          <t>a narrow[close] squeak[escape]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>세상 물정에 밝은 사람</t>
+          <t>위험한 순간</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>a narrow[close] squeak[escape]</t>
+          <t>a close call</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1648,422 +1648,422 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>systematic</t>
+          <t>let off</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>체계적인, 조직적인</t>
+          <t>발사하다</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>organized</t>
+          <t>a chip off the old block</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>체계적인, 조직적인</t>
+          <t>(부모와 아주 닮은) 판박이</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>a bear market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>체계적인, 조직적인</t>
+          <t>하락세</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>methodical</t>
+          <t>touch off</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>체계적인, 조직적인</t>
+          <t>발사하다</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>innovative</t>
+          <t>a blind date</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>독창적인</t>
+          <t>소개팅 / 서로 모르는 남녀의 데이트</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>a lemon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>독창적인</t>
+          <t>품질이 좋지 않은 물건</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>a glass ceiling</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>독창적인</t>
+          <t>유리천장(승진하기 힘든 구조)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>inventive</t>
+          <t>erase</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>독창적인</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ingenious</t>
+          <t>pack</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>독창적인</t>
+          <t>(물건을) 싸다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>disclose</t>
+          <t>launch</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>폭로하다</t>
+          <t>발사하다</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>let on</t>
+          <t>expunge</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>폭로하다</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>reveal</t>
+          <t>a big bug[shot; name; noise]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>폭로하다</t>
+          <t>대단한 인물</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>expose</t>
+          <t>obliterate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>폭로하다</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>divulge</t>
+          <t>celebrate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>폭로하다</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>let off</t>
+          <t>reveal</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>발사하다</t>
+          <t>폭로하다</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>touch off</t>
+          <t>unearth</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>발사하다</t>
+          <t>발굴하다</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>discharge</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2073,397 +2073,397 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>launch</t>
+          <t>a chicken</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>발사하다</t>
+          <t>겁쟁이</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>discharge</t>
+          <t>a house-warming party</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>발사하다</t>
+          <t>집들이</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>let up</t>
+          <t>commemorate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>완화하다, 완화되다</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ease off</t>
+          <t>a big fish</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>완화하다, 완화되다</t>
+          <t>대단한 인물</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>cushion</t>
+          <t>envelop</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>완화하다, 완화되다</t>
+          <t>(물건을) 싸다</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lossen</t>
+          <t>a big hand</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>완화하다, 완화되다</t>
+          <t>힘찬 박수 / 뜨거운 박수</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>slacken</t>
+          <t>divulge</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>완화하다, 완화되다</t>
+          <t>폭로하다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>a fair-weather friend[fan]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>실망시키다</t>
+          <t>좋을 때만 친구[팀이 잘 나갈 때만 응원하는 팬]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>disappoint</t>
+          <t>eradicate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>실망시키다</t>
+          <t>지우다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>discourage</t>
+          <t>congratulate</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>실망시키다</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>frustrate</t>
+          <t>expose</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>실망시키다</t>
+          <t>폭로하다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>excavate</t>
+          <t>slacken</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>발굴하다</t>
+          <t>완화하다 / 완화되다</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>exhume</t>
+          <t>frustrate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>발굴하다</t>
+          <t>실망시키다</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>unearth</t>
+          <t>a cold fish</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>발굴하다</t>
+          <t>냉혈한 / 냉정한 인간</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>unbury</t>
+          <t>organized</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>발굴하다</t>
+          <t>체계적인 / 조직적인</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>disinter</t>
+          <t>excavate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2473,247 +2473,247 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>pack</t>
+          <t>fete</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(물건을) 싸다</t>
+          <t>축하하다 / 기념하다</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>warp</t>
+          <t>a drop in the ocean</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(물건을) 싸다</t>
+          <t>새 발의 피</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>envelop</t>
+          <t>a backseat driver</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(물건을) 싸다</t>
+          <t>쓸데없이 간섭하는 사람</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>erase</t>
+          <t>warp</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>(물건을) 싸다</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>efface</t>
+          <t>a couch potato</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>오랫동안 가만히 앉아 텔레비전만 보는 사람</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>eradicate</t>
+          <t>a bigwig</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>대단한 인물</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>obliterate</t>
+          <t>cushion</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>완화하다 / 완화되다</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>expunge</t>
+          <t>a heart of gold</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>고운 마음씨</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>delete</t>
+          <t>a big fish in a little pond</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>지우다</t>
+          <t>우물 안 개구리</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>censor</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2723,166 +2723,166 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>celebrate</t>
+          <t>shoot</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>발사하다</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>congratulate</t>
+          <t>a fat cat</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>큰 금액의 정치 후원을 하는 사람 / 부자</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>commemorate</t>
+          <t>a dark horse</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>유력한 경쟁 상대 (다크호스)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>felicitate</t>
+          <t>disappoint</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>실망시키다</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>fete</t>
+          <t>a last resort</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>최후의 수단</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>memorialize</t>
+          <t>the tip of the iceberg</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>축하하다, 기념하다</t>
+          <t>새 발의 피</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Day10</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
